--- a/WET_GAS_pressao_interestagio.xlsx
+++ b/WET_GAS_pressao_interestagio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UT6E\Downloads\otimização\RPBC_REFTOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89C3807-7910-4878-A9F0-560B643A3965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2E6CA-3769-4B5C-952E-AB75EF83AFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="1785" windowWidth="34485" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="1440" windowWidth="40710" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>Discharge Conditions</t>
   </si>
@@ -122,15 +122,6 @@
   </si>
   <si>
     <t>NOVO PONTO 2 SEÇÃO</t>
-  </si>
-  <si>
-    <t>1.5 e 22.29</t>
-  </si>
-  <si>
-    <t>1.47 e 22.29</t>
-  </si>
-  <si>
-    <t>revisão 4: 1.59 e 22.29</t>
   </si>
   <si>
     <t>fixando condensação em 0.75 e 1.45</t>
@@ -211,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -354,24 +345,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -442,9 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,55 +444,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1194435</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>816046</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>24310</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9710847-1B31-7B52-9258-E562017560D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8442960" y="12456795"/>
-          <a:ext cx="9603811" cy="3626665"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,23 +732,7 @@
     <col min="13" max="13" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
@@ -881,36 +791,16 @@
       <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5">
-        <v>186967.65840381611</v>
-      </c>
-      <c r="D4" s="14">
-        <v>155514.31054872388</v>
-      </c>
-      <c r="E4" s="14">
-        <v>18404.900000000001</v>
-      </c>
-      <c r="F4" s="14">
-        <v>151563.1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>177238.11989301047</v>
-      </c>
-      <c r="H4" s="14">
-        <v>148582.86793509248</v>
-      </c>
-      <c r="I4" s="14">
-        <v>176832.0748306379</v>
-      </c>
-      <c r="J4" s="14">
-        <v>132624.05612297842</v>
-      </c>
-      <c r="K4" s="28">
-        <v>249378.60918662901</v>
-      </c>
-      <c r="L4" s="28">
-        <v>199502.8873493032</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
@@ -931,141 +821,61 @@
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.5400000000000005</v>
-      </c>
-      <c r="D6" s="24">
-        <v>5.6690742962230276</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="17">
-        <v>5.58</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1.4700000000000004</v>
-      </c>
-      <c r="H6" s="17">
-        <v>5.5130832991860723</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="J6" s="17">
-        <v>5.1719593678122697</v>
-      </c>
-      <c r="K6" s="28">
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="L6" s="28">
-        <v>6.9466266534080443</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
-        <v>39</v>
-      </c>
-      <c r="D7" s="17">
-        <v>40</v>
-      </c>
-      <c r="E7" s="17">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17">
-        <v>40</v>
-      </c>
-      <c r="G7" s="17">
-        <v>39</v>
-      </c>
-      <c r="H7" s="17">
-        <v>40</v>
-      </c>
-      <c r="I7" s="17">
-        <v>39</v>
-      </c>
-      <c r="J7" s="17">
-        <v>40</v>
-      </c>
-      <c r="K7" s="28">
-        <v>39</v>
-      </c>
-      <c r="L7" s="28">
-        <v>40</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
-        <v>43.136558675999986</v>
-      </c>
-      <c r="D8" s="18">
-        <v>37.652103274033358</v>
-      </c>
-      <c r="E8" s="18">
-        <v>43.14</v>
-      </c>
-      <c r="F8" s="18">
-        <v>37.76</v>
-      </c>
-      <c r="G8" s="18">
-        <v>43.136558675999986</v>
-      </c>
-      <c r="H8" s="18">
-        <v>37.847010365092665</v>
-      </c>
-      <c r="I8" s="18">
-        <v>43.136558675999986</v>
-      </c>
-      <c r="J8" s="18">
-        <v>38.292166394512996</v>
-      </c>
-      <c r="K8" s="28">
-        <v>43.136558675999986</v>
-      </c>
-      <c r="L8" s="28">
-        <v>36.215049125398863</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6">
-        <v>73109.114260505579</v>
-      </c>
-      <c r="D9" s="18">
-        <v>18339.904243224908</v>
-      </c>
-      <c r="E9" s="18">
-        <v>72861.679999999993</v>
-      </c>
-      <c r="F9" s="18">
-        <v>18115.75</v>
-      </c>
-      <c r="G9" s="18">
-        <v>72667.934480630443</v>
-      </c>
-      <c r="H9" s="18">
-        <v>17942.553982673537</v>
-      </c>
-      <c r="I9" s="18">
-        <v>73519.693337968944</v>
-      </c>
-      <c r="J9" s="18">
-        <v>16909.244908078617</v>
-      </c>
-      <c r="K9" s="28">
-        <v>74654.158425172558</v>
-      </c>
-      <c r="L9" s="28">
-        <v>19817.51773963396</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
@@ -1086,71 +896,31 @@
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
-        <v>6.1790742962230283</v>
-      </c>
-      <c r="D11" s="18">
-        <v>22.290016933195005</v>
-      </c>
-      <c r="E11" s="18">
-        <v>6.09</v>
-      </c>
-      <c r="F11" s="18">
-        <v>22.29</v>
-      </c>
-      <c r="G11" s="18">
-        <v>6.023083299186073</v>
-      </c>
-      <c r="H11" s="18">
-        <v>22.289631636159186</v>
-      </c>
-      <c r="I11" s="18">
-        <v>5.6819593678122695</v>
-      </c>
-      <c r="J11" s="18">
-        <v>22.289916689807033</v>
-      </c>
-      <c r="K11" s="28">
-        <v>7.456626653408045</v>
-      </c>
-      <c r="L11" s="29">
-        <v>22.288824341159199</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6">
-        <v>100.74816461708389</v>
-      </c>
-      <c r="D12" s="18">
-        <v>115.93484427997089</v>
-      </c>
-      <c r="E12" s="18">
-        <v>101.05</v>
-      </c>
-      <c r="F12" s="18">
-        <v>116.46</v>
-      </c>
-      <c r="G12" s="18">
-        <v>101.28453107750875</v>
-      </c>
-      <c r="H12" s="18">
-        <v>116.86347543897938</v>
-      </c>
-      <c r="I12" s="18">
-        <v>99.902019894389923</v>
-      </c>
-      <c r="J12" s="18">
-        <v>119.14284319584226</v>
-      </c>
-      <c r="K12" s="28">
-        <v>99.247601363434057</v>
-      </c>
-      <c r="L12" s="28">
-        <v>110.91622446310288</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
@@ -1171,36 +941,16 @@
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>5626.344577607776</v>
-      </c>
-      <c r="D14" s="19">
-        <v>5413.3715176613341</v>
-      </c>
-      <c r="E14" s="19">
-        <v>5493</v>
-      </c>
-      <c r="F14" s="19">
-        <v>5313</v>
-      </c>
-      <c r="G14" s="19">
-        <v>5392.3073871335901</v>
-      </c>
-      <c r="H14" s="19">
-        <v>5236.9774113852354</v>
-      </c>
-      <c r="I14" s="19">
-        <v>5267.12012435201</v>
-      </c>
-      <c r="J14" s="19">
-        <v>4821.2983132803165</v>
-      </c>
-      <c r="K14" s="28">
-        <v>7216.2761480853742</v>
-      </c>
-      <c r="L14" s="28">
-        <v>6544.2725397055383</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
@@ -1221,106 +971,46 @@
       <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="D16" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="E16" s="19">
-        <v>5354</v>
-      </c>
-      <c r="F16" s="19">
-        <v>5354</v>
-      </c>
-      <c r="G16" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="H16" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="I16" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="J16" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="K16" s="28">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="L16" s="28">
-        <v>5354.0000000000009</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
-        <v>89.057902231336868</v>
-      </c>
-      <c r="D17" s="14">
-        <v>97.928494095264156</v>
-      </c>
-      <c r="E17" s="14">
-        <v>89.9</v>
-      </c>
-      <c r="F17" s="14">
-        <v>98.9</v>
-      </c>
-      <c r="G17" s="14">
-        <v>90.570749976991593</v>
-      </c>
-      <c r="H17" s="14">
-        <v>99.577576239042074</v>
-      </c>
-      <c r="I17" s="14">
-        <v>87.618309397641582</v>
-      </c>
-      <c r="J17" s="14">
-        <v>103.35127378629882</v>
-      </c>
-      <c r="K17" s="28">
-        <v>83.510052586026731</v>
-      </c>
-      <c r="L17" s="28">
-        <v>85.915553710612414</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5">
-        <v>82.207250456964132</v>
-      </c>
-      <c r="D18" s="14">
-        <v>78.146422513491004</v>
-      </c>
-      <c r="E18" s="14">
-        <v>82.5</v>
-      </c>
-      <c r="F18" s="14">
-        <v>78.3</v>
-      </c>
-      <c r="G18" s="14">
-        <v>82.692849331193514</v>
-      </c>
-      <c r="H18" s="14">
-        <v>78.477848201015689</v>
-      </c>
-      <c r="I18" s="14">
-        <v>81.710936475007259</v>
-      </c>
-      <c r="J18" s="14">
-        <v>78.971726910500095</v>
-      </c>
-      <c r="K18" s="28">
-        <v>80.164541084481712</v>
-      </c>
-      <c r="L18" s="28">
-        <v>72.754037678183238</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
@@ -1336,144 +1026,72 @@
       <c r="J19" s="22"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="23">
-        <f>C11-D6</f>
-        <v>0.51000000000000068</v>
-      </c>
-      <c r="D23" s="26">
-        <f>D4/C4</f>
-        <v>0.83177118372441328</v>
-      </c>
-      <c r="E23" s="25">
-        <f t="shared" ref="E23" si="0">E11-F6</f>
-        <v>0.50999999999999979</v>
-      </c>
-      <c r="F23" s="25">
-        <f t="shared" ref="F23" si="1">F11-G6</f>
-        <v>20.82</v>
-      </c>
-      <c r="G23" s="25">
-        <f t="shared" ref="G23" si="2">G11-H6</f>
-        <v>0.51000000000000068</v>
-      </c>
-      <c r="H23" s="26">
-        <f>H4/G4</f>
-        <v>0.83832342627412382</v>
-      </c>
-      <c r="I23" s="25">
-        <f t="shared" ref="I23" si="3">I11-J6</f>
-        <v>0.50999999999999979</v>
-      </c>
-      <c r="J23" s="26">
-        <f>J4/I4</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I26">
-        <f>I4/3600</f>
-        <v>49.120020786288308</v>
-      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="27">
-        <f>22.29-D11</f>
-        <v>-1.6933195006174628E-5</v>
-      </c>
-      <c r="C29">
-        <f>C9/3600</f>
-        <v>20.308087294584883</v>
-      </c>
-      <c r="D29">
-        <f>D9/3600</f>
-        <v>5.094417845340252</v>
-      </c>
-      <c r="E29" s="27">
-        <f>22.29-F11</f>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f>F9/3600</f>
-        <v>5.0321527777777781</v>
-      </c>
-      <c r="K29">
-        <f>K9/3600</f>
-        <v>20.737266229214601</v>
-      </c>
-      <c r="L29">
-        <f>L9/3600</f>
-        <v>5.5048660387872115</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K30">
-        <f>K10/3600</f>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f>L10/3600</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f>C4/3600</f>
-        <v>51.935460667726694</v>
-      </c>
+      <c r="B29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="G41" s="32"/>
+      <c r="H41" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
+      <c r="I41" s="32"/>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33" t="s">
+      <c r="D42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="33"/>
-      <c r="J41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>39</v>
+      <c r="E42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -1990,244 +1608,6 @@
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f>C43/B43</f>
-        <v>0.82720369990974441</v>
-      </c>
-      <c r="D61">
-        <f>E43/D43</f>
-        <v>0.83549617457962833</v>
-      </c>
-      <c r="F61">
-        <f>G43/F43</f>
-        <v>0.83832342627412382</v>
-      </c>
-      <c r="H61">
-        <f>I43/H43</f>
-        <v>0.83177118372441328</v>
-      </c>
-      <c r="J61">
-        <f>K43/J43</f>
-        <v>0.75</v>
-      </c>
-      <c r="L61">
-        <f>M43/L43</f>
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="65" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L65" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L66" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L68" s="14">
-        <v>176832.0748306379</v>
-      </c>
-      <c r="M68" s="14">
-        <v>132624.05612297842</v>
-      </c>
-      <c r="N68" s="14">
-        <v>249378.60918662901</v>
-      </c>
-      <c r="O68" s="14">
-        <v>199502.8873493032</v>
-      </c>
-    </row>
-    <row r="69" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-    </row>
-    <row r="70" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L70" s="17">
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="M70" s="17">
-        <v>5.1719593678122697</v>
-      </c>
-      <c r="N70" s="17">
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="O70" s="17">
-        <v>6.9466266534080443</v>
-      </c>
-    </row>
-    <row r="71" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L71" s="17">
-        <v>39</v>
-      </c>
-      <c r="M71" s="17">
-        <v>40</v>
-      </c>
-      <c r="N71" s="17">
-        <v>39</v>
-      </c>
-      <c r="O71" s="17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L72" s="18">
-        <v>43.136558675999986</v>
-      </c>
-      <c r="M72" s="18">
-        <v>38.292166394512996</v>
-      </c>
-      <c r="N72" s="18">
-        <v>43.136558675999986</v>
-      </c>
-      <c r="O72" s="18">
-        <v>36.215049125398863</v>
-      </c>
-    </row>
-    <row r="73" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L73" s="18">
-        <v>73519.693337968944</v>
-      </c>
-      <c r="M73" s="18">
-        <v>16909.244908078617</v>
-      </c>
-      <c r="N73" s="18">
-        <v>74654.158425172558</v>
-      </c>
-      <c r="O73" s="18">
-        <v>19817.51773963396</v>
-      </c>
-    </row>
-    <row r="74" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-    </row>
-    <row r="75" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L75" s="18">
-        <v>5.6819593678122695</v>
-      </c>
-      <c r="M75" s="18">
-        <v>22.289916689807033</v>
-      </c>
-      <c r="N75" s="18">
-        <v>7.456626653408045</v>
-      </c>
-      <c r="O75" s="18">
-        <v>22.288824341159199</v>
-      </c>
-    </row>
-    <row r="76" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L76" s="18">
-        <v>99.902019894389923</v>
-      </c>
-      <c r="M76" s="18">
-        <v>119.14284319584226</v>
-      </c>
-      <c r="N76" s="18">
-        <v>99.247601363434057</v>
-      </c>
-      <c r="O76" s="18">
-        <v>110.91622446310288</v>
-      </c>
-    </row>
-    <row r="77" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-    </row>
-    <row r="78" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L78" s="19">
-        <v>5267.12012435201</v>
-      </c>
-      <c r="M78" s="19">
-        <v>4821.2983132803165</v>
-      </c>
-      <c r="N78" s="19">
-        <v>7216.2761480853742</v>
-      </c>
-      <c r="O78" s="19">
-        <v>6544.2725397055383</v>
-      </c>
-    </row>
-    <row r="79" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-    </row>
-    <row r="80" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L80" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="M80" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="N80" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-      <c r="O80" s="19">
-        <v>5354.0000000000009</v>
-      </c>
-    </row>
-    <row r="81" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L81" s="14">
-        <v>87.618309397641582</v>
-      </c>
-      <c r="M81" s="14">
-        <v>103.35127378629882</v>
-      </c>
-      <c r="N81" s="14">
-        <v>83.510052586026731</v>
-      </c>
-      <c r="O81" s="14">
-        <v>85.915553710612414</v>
-      </c>
-    </row>
-    <row r="82" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L82" s="14">
-        <v>81.710936475007259</v>
-      </c>
-      <c r="M82" s="14">
-        <v>78.971726910500095</v>
-      </c>
-      <c r="N82" s="14">
-        <v>80.164541084481712</v>
-      </c>
-      <c r="O82" s="14">
-        <v>72.754037678183238</v>
-      </c>
-    </row>
-    <row r="83" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="32"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B41:C41"/>
@@ -2239,7 +1619,6 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K008542 INTERNA</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
